--- a/src/test/resources/data/test-data.xlsx
+++ b/src/test/resources/data/test-data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\SourceDemo\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6260D008-868F-449B-BF63-F30F7F455BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E9E32-C9BF-48EB-8793-098BAFB3461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A7B60316-8935-475A-BDC3-C5608CF03200}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A7B60316-8935-475A-BDC3-C5608CF03200}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="MenuItemsData" sheetId="2" r:id="rId2"/>
     <sheet name="SocialsData" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckoutData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>standard_user</t>
   </si>
@@ -179,6 +180,33 @@
   </si>
   <si>
     <t>Sauce Labs: Overview | LinkedIn</t>
+  </si>
+  <si>
+    <t>Error: First Name is required</t>
+  </si>
+  <si>
+    <t>Error: Last Name is required</t>
+  </si>
+  <si>
+    <t>Error: Postal Code is required</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>kwazi</t>
+  </si>
+  <si>
+    <t>zwanovich</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -253,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -265,6 +293,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -889,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B12D2-C2EF-49D6-9E51-473753361BC0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,4 +980,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8585A5-955A-4B22-BB41-B66F3C9F6042}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2301</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/test-data.xlsx
+++ b/src/test/resources/data/test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\SourceDemo\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E9E32-C9BF-48EB-8793-098BAFB3461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7A773-BC94-4A7F-8E34-EA07E2DF02C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A7B60316-8935-475A-BDC3-C5608CF03200}"/>
   </bookViews>
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -294,9 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,7 +984,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1058,7 @@
       <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>2301</v>
       </c>
       <c r="E5" s="5" t="s">
